--- a/test_dir/tmp_file/import.xlsx
+++ b/test_dir/tmp_file/import.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="添加新犯" sheetId="2" r:id="rId1"/>
     <sheet name="上下账" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="转监区" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>所属大队</t>
   </si>
@@ -54,37 +54,64 @@
     <t>四大队</t>
   </si>
   <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>普通型</t>
+  </si>
+  <si>
+    <t>新收容</t>
+  </si>
+  <si>
+    <t>普管</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>处理金额</t>
+  </si>
+  <si>
+    <t>YY0TX02W0TXK00099Y</t>
+  </si>
+  <si>
     <t>兰为腾</t>
   </si>
   <si>
-    <t>YY0TX02W0TXK00099Y</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>普通型</t>
-  </si>
-  <si>
-    <t>新收容</t>
-  </si>
-  <si>
-    <t>普管</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>处理金额</t>
+    <t>原大队（非必填）</t>
+  </si>
+  <si>
+    <t>转入大队</t>
+  </si>
+  <si>
+    <t>邬兴贵</t>
   </si>
   <si>
     <t>NNYY0TX0TXW0TX9TXWTX208</t>
   </si>
   <si>
-    <t>邬兴贵</t>
+    <t>无</t>
+  </si>
+  <si>
+    <t>六大队</t>
+  </si>
+  <si>
+    <t>服刑伦4</t>
+  </si>
+  <si>
+    <t>0000001443</t>
+  </si>
+  <si>
+    <t>一大队</t>
+  </si>
+  <si>
+    <t>八大队</t>
   </si>
 </sst>
 </file>
@@ -92,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -123,36 +150,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,106 +292,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -275,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,86 +493,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -566,6 +513,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,8 +1106,8 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1134,23 +1161,23 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>12334445</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2">
-        <v>343434343</v>
+        <v>45454525</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1193,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1177,21 +1204,21 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17.4" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1207,14 +1234,63 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="26.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="24.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="12.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="17.4" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
